--- a/Florentino.xlsx
+++ b/Florentino.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Aug. 25-31" sheetId="1" r:id="rId1"/>
     <sheet name="Sep. 1-7" sheetId="2" r:id="rId2"/>
     <sheet name="Sep. 20-25 " sheetId="3" r:id="rId3"/>
+    <sheet name="Sep. 26-0ct. 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Activity</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>Researh About Crystal Report step by step process in VB net</t>
+  </si>
+  <si>
+    <t>09/ 27-29/19</t>
+  </si>
+  <si>
+    <t>Documentation Chapter 1-2</t>
+  </si>
+  <si>
+    <t>09/27/2019</t>
+  </si>
+  <si>
+    <t>Visitation of Client</t>
   </si>
 </sst>
 </file>
@@ -136,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,4 +693,89 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>